--- a/manual_testing_log.xlsx
+++ b/manual_testing_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\terminal_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB02111-C2CF-4020-8920-76CFEA7483BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B932B9BD-B561-4D09-8EA4-0A773C8DE03B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="487" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="487" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
-  <si>
-    <t>Feature</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Feature ID</t>
   </si>
   <si>
-    <t>Test Case</t>
-  </si>
-  <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
   </si>
   <si>
     <t>Status</t>
@@ -81,15 +72,7 @@
     <t>"ox "() with a space after the text</t>
   </si>
   <si>
-    <t xml:space="preserve">User enters 'ox' and press space before hitting enter.
-A message will pop up, advising users that the only available options 0, 1, 2, 3. </t>
-  </si>
-  <si>
     <t>"tiger "() with a space after the text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User enters 'tiger' and press space before hitting enter.
-A message will pop up, advising users that the only available options 0, 1, 2, 3. </t>
   </si>
   <si>
     <t xml:space="preserve">Check results on entering an invalid animal option </t>
@@ -107,14 +90,49 @@
     <t>This error was handled by adding '.delete(" ")' after 'gets.chomp'</t>
   </si>
   <si>
-    <t>Actual Result</t>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>User enters 'Rabbit' with a capitalised 'R'.
+The code still runs without an error.</t>
+  </si>
+  <si>
+    <t>This error was handled by adding '.downcase' after 'gets.chomp'</t>
+  </si>
+  <si>
+    <t>tIGeR</t>
+  </si>
+  <si>
+    <t>User enters 'tIGeR' with a capitalised  'I', 'G', 'R'.
+The code still runs without an error.</t>
+  </si>
+  <si>
+    <t>User enters 'ox ' (with a space) before hitting enter.
+The code still runs without an error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User enters 'tiger ' (with a space) before hitting enter.
+The code still runs without an error.
+</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -138,6 +156,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -174,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -200,8 +225,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,9 +550,9 @@
   </sheetPr>
   <dimension ref="A1:U984"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -536,10 +564,10 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -566,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.25">
@@ -574,7 +602,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -582,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -590,7 +618,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,11 +3571,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3563,30 +3591,30 @@
     <col min="9" max="16384" width="14.453125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -3607,7 +3635,7 @@
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="82" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3615,22 +3643,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -3651,30 +3679,30 @@
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
     </row>
-    <row r="3" spans="1:26" ht="77.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3695,29 +3723,31 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:26" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
@@ -3735,30 +3765,33 @@
       <c r="W4" s="8"/>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
-    </row>
-    <row r="5" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="8"/>
+    </row>
+    <row r="5" spans="1:26" ht="59" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
+      <c r="H5" s="8" t="s">
+        <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -3776,15 +3809,30 @@
       <c r="W5" s="8"/>
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="Z5" s="8"/>
+    </row>
+    <row r="6" spans="1:26" ht="62.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -3803,16 +3851,29 @@
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
       <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+    </row>
+    <row r="7" spans="1:26" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -3831,7 +3892,6 @@
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
       <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -4197,7 +4257,7 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4225,7 +4285,7 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -31609,6 +31669,62 @@
       <c r="Y999" s="8"/>
       <c r="Z999" s="8"/>
     </row>
+    <row r="1000" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="8"/>
+      <c r="D1000" s="8"/>
+      <c r="E1000" s="8"/>
+      <c r="F1000" s="8"/>
+      <c r="G1000" s="8"/>
+      <c r="H1000" s="8"/>
+      <c r="I1000" s="8"/>
+      <c r="J1000" s="8"/>
+      <c r="K1000" s="8"/>
+      <c r="L1000" s="8"/>
+      <c r="M1000" s="8"/>
+      <c r="N1000" s="8"/>
+      <c r="O1000" s="8"/>
+      <c r="P1000" s="8"/>
+      <c r="Q1000" s="8"/>
+      <c r="R1000" s="8"/>
+      <c r="S1000" s="8"/>
+      <c r="T1000" s="8"/>
+      <c r="U1000" s="8"/>
+      <c r="V1000" s="8"/>
+      <c r="W1000" s="8"/>
+      <c r="X1000" s="8"/>
+      <c r="Y1000" s="8"/>
+      <c r="Z1000" s="8"/>
+    </row>
+    <row r="1001" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="8"/>
+      <c r="C1001" s="8"/>
+      <c r="D1001" s="8"/>
+      <c r="E1001" s="8"/>
+      <c r="F1001" s="8"/>
+      <c r="G1001" s="8"/>
+      <c r="H1001" s="8"/>
+      <c r="I1001" s="8"/>
+      <c r="J1001" s="8"/>
+      <c r="K1001" s="8"/>
+      <c r="L1001" s="8"/>
+      <c r="M1001" s="8"/>
+      <c r="N1001" s="8"/>
+      <c r="O1001" s="8"/>
+      <c r="P1001" s="8"/>
+      <c r="Q1001" s="8"/>
+      <c r="R1001" s="8"/>
+      <c r="S1001" s="8"/>
+      <c r="T1001" s="8"/>
+      <c r="U1001" s="8"/>
+      <c r="V1001" s="8"/>
+      <c r="W1001" s="8"/>
+      <c r="X1001" s="8"/>
+      <c r="Y1001" s="8"/>
+      <c r="Z1001" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/manual_testing_log.xlsx
+++ b/manual_testing_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\terminal_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B932B9BD-B561-4D09-8EA4-0A773C8DE03B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF713C-FD13-44E5-8564-9AEBF4AC1BE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="487" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Feature ID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>passed</t>
-  </si>
-  <si>
-    <t>Users can enter their birth year to receive their Chinese zodiac animal</t>
   </si>
   <si>
     <t>Test ID</t>
@@ -73,18 +70,6 @@
   </si>
   <si>
     <t>"tiger "() with a space after the text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check results on entering an invalid animal option </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check results on entering an invalid option </t>
-  </si>
-  <si>
-    <t>Users can enter their zodiac animal to see their zodiac animal compatibility  (best matches &amp; major conflict)</t>
-  </si>
-  <si>
-    <t>Users can enter their zodiac animal to predict their luck in 2020</t>
   </si>
   <si>
     <t>This error was handled by adding '.delete(" ")' after 'gets.chomp'</t>
@@ -126,6 +111,18 @@
   </si>
   <si>
     <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Feature 1 ‘Chinese Zodiac Animal Test’ - Enter birth year and receive your Chinese zodiac animal</t>
+  </si>
+  <si>
+    <t>Feature 2 ‘Animal Compatibility Test’ - Enter your zodiac animal to see your best &amp; worst animal matches</t>
+  </si>
+  <si>
+    <t>Feature 3 ‘Luck Prediction in 2020: Tai Sui Test’ - Enter your zodiac animal to predict your luck in 2020</t>
+  </si>
+  <si>
+    <t>Check results on entering an invalid animal selection</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -594,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" s="4" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.25">
@@ -602,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="4" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3575,7 +3572,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3593,22 +3590,22 @@
   <sheetData>
     <row r="1" spans="1:26" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>2</v>
@@ -3643,22 +3640,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -3687,22 +3684,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -3731,22 +3728,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -3775,22 +3772,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -3819,16 +3816,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>4</v>
@@ -3860,16 +3857,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>4</v>
